--- a/image/parameters.xlsx
+++ b/image/parameters.xlsx
@@ -510,43 +510,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.6328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.80859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/parameters.xlsx
+++ b/image/parameters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="113">
   <si>
     <t>Path</t>
   </si>
@@ -158,7 +158,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -257,10 +257,6 @@
     <t>Parameters.parameter.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -329,7 +325,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>If parameter is a data type</t>
@@ -510,43 +506,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.6328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.80859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1313,13 +1309,13 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1370,7 +1366,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
@@ -1393,11 +1389,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1416,16 +1412,16 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1475,7 +1471,7 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>39</v>
@@ -1498,11 +1494,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1521,19 +1517,19 @@
         <v>47</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>38</v>
@@ -1582,7 +1578,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -1600,12 +1596,12 @@
         <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1628,13 +1624,13 @@
         <v>47</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1685,7 +1681,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>46</v>
@@ -1708,7 +1704,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1731,13 +1727,13 @@
         <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1788,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -1797,7 +1793,7 @@
         <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
@@ -1811,7 +1807,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1834,16 +1830,16 @@
         <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1893,7 +1889,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -1902,7 +1898,7 @@
         <v>46</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
@@ -1916,7 +1912,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1942,13 +1938,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1998,7 +1994,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
